--- a/doc/examples/resource/resource-skills.xlsx
+++ b/doc/examples/resource/resource-skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\examples\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D90676-AD87-41B0-92B6-04B9B7560497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17F060-7E1F-461E-A1B8-3392EB488062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="-14130" windowWidth="27030" windowHeight="12405" tabRatio="852" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -182,9 +182,6 @@
     <t>A001</t>
   </si>
   <si>
-    <t>2015-02-13 12:00:00</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>MINCOSTPENALTY</t>
+  </si>
+  <si>
+    <t>2023-01-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -347,9 +347,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -822,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -836,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -853,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -870,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -887,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -904,7 +905,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -921,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -938,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -952,10 +953,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -981,16 +982,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -998,10 +999,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1009,10 +1010,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1020,10 +1021,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1031,10 +1032,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1042,10 +1043,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1053,10 +1054,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1064,10 +1065,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1075,10 +1076,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1086,10 +1087,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1097,10 +1098,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1108,10 +1109,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1119,10 +1120,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1130,10 +1131,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1141,10 +1142,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1152,10 +1153,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1163,10 +1164,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1174,10 +1175,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1185,10 +1186,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1196,10 +1197,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1234,26 +1235,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1267,10 +1268,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1284,10 +1285,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1301,10 +1302,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1318,10 +1319,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1335,7 +1336,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1360,7 +1361,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1371,7 +1372,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -1382,7 +1383,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1393,7 +1394,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1435,37 +1436,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1477,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,35 +1502,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42005.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1697,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1710,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,7 +1757,7 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1764,14 +1765,14 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>44970.5</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1785,10 +1786,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1796,14 +1797,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1">
+        <v>44970.5</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1817,10 +1818,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1828,14 +1829,14 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1">
+        <v>44970.5</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1849,10 +1850,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1860,14 +1861,14 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>44970.5</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -1900,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -1923,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,7 +1966,7 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,7 +1994,7 @@
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,7 +2022,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,7 +2036,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,7 +2064,7 @@
         <v>-1</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2091,12 +2092,12 @@
         <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2105,7 +2106,7 @@
         <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2141,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2194,19 +2195,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2225,16 +2226,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2242,7 +2243,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2253,16 +2254,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2270,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2281,16 +2282,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2298,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2309,16 +2310,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2337,16 +2338,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2354,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2365,16 +2366,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2382,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2393,16 +2394,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
